--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005715704279999999</v>
+        <v>0.29909949828</v>
       </c>
       <c r="R2">
-        <v>0.05144133852</v>
+        <v>2.69189548452</v>
       </c>
       <c r="S2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="T2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I3">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J3">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>3.180853888739999</v>
       </c>
       <c r="S3">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="T3">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H4">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I4">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J4">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.83757752654</v>
+        <v>0.63836002472</v>
       </c>
       <c r="R4">
-        <v>43.53819773886001</v>
+        <v>5.745240222480001</v>
       </c>
       <c r="S4">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="T4">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H5">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I5">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J5">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1297592912</v>
+        <v>0.10769476168</v>
       </c>
       <c r="R5">
-        <v>1.1678336208</v>
+        <v>0.96925285512</v>
       </c>
       <c r="S5">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="T5">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H6">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I6">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J6">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.04677764454</v>
+        <v>0.5781723712599999</v>
       </c>
       <c r="R6">
-        <v>0.42099880086</v>
+        <v>5.20355134134</v>
       </c>
       <c r="S6">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="T6">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H7">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I7">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J7">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>9.416084524879999</v>
+        <v>0.3474743294</v>
       </c>
       <c r="R7">
-        <v>84.74476072392</v>
+        <v>3.1272689646</v>
       </c>
       <c r="S7">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="T7">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
     </row>
   </sheetData>
